--- a/src/main/resources/excel/mine.xlsx
+++ b/src/main/resources/excel/mine.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -559,10 +559,10 @@
         <v>3306</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
